--- a/docs/bom/bom.xlsx
+++ b/docs/bom/bom.xlsx
@@ -77,7 +77,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-12-22_00-56-30</t>
+    <t>2023-12-22_01-14-46</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/docs/bom/bom.xlsx
+++ b/docs/bom/bom.xlsx
@@ -77,7 +77,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-12-22_01-14-46</t>
+    <t>2023-12-22_01-20-31</t>
   </si>
   <si>
     <t>KiCad Version:</t>
